--- a/Envanter Uygulamasi/bin/Debug/Kullanıcılar.xlsx
+++ b/Envanter Uygulamasi/bin/Debug/Kullanıcılar.xlsx
@@ -1,156 +1,144 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EXCALIBUR\source\repos\Envanter Uygulamasi\Envanter Uygulamasi\bin\Debug\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02C72F7-C7DF-430C-A420-F5A26F58EB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Kullanıcılar" sheetId="2" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="0"/>
-</workbook>
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:workbookPr codeName="ThisWorkbook"/>
+  <x:bookViews>
+    <x:workbookView firstSheet="0" activeTab="0"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Kullanıcılar" sheetId="2" r:id="rId2"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="125725"/>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
-  <si>
-    <t>sicil</t>
-  </si>
-  <si>
-    <t>kullaniciadi</t>
-  </si>
-  <si>
-    <t>sifre</t>
-  </si>
-  <si>
-    <t>yazakimail</t>
-  </si>
-  <si>
-    <t>yetki</t>
-  </si>
-  <si>
-    <t>Admin</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>kadir.babahan</t>
-  </si>
-  <si>
-    <t>yazakiyazaki2021</t>
-  </si>
-  <si>
-    <t>kadir.babahan@yazaki-europe.com</t>
-  </si>
-  <si>
-    <t>burak.sariaydin</t>
-  </si>
-  <si>
-    <t>emirhan.eren</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:si>
+    <x:t>sicil</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kullaniciadi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sifre</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yazakimail</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yetki</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Admin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>dsa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kadir.babahan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yazakiyazaki2021</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kadir.babahan@yazaki-europe.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>burak</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YOK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>emirhan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>emirhan.eren@gmail.com</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ege</x:t>
+  </x:si>
+  <x:si>
+    <x:t>31</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
-  </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-  </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+<x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="1">
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border diagonalUp="0" diagonalDown="0">
+      <x:left style="none">
+        <x:color rgb="FF000000"/>
+      </x:left>
+      <x:right style="none">
+        <x:color rgb="FF000000"/>
+      </x:right>
+      <x:top style="none">
+        <x:color rgb="FF000000"/>
+      </x:top>
+      <x:bottom style="none">
+        <x:color rgb="FF000000"/>
+      </x:bottom>
+      <x:diagonal style="none">
+        <x:color rgb="FF000000"/>
+      </x:diagonal>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+</x:styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:E5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="sicil" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="kullaniciadi" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="sifre" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="yazakimail" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="yetki" dataDxfId="2"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E6" totalsRowShown="0">
+  <x:autoFilter ref="A1:E6"/>
+  <x:tableColumns count="5">
+    <x:tableColumn id="1" name="sicil"/>
+    <x:tableColumn id="2" name="kullaniciadi"/>
+    <x:tableColumn id="3" name="sifre"/>
+    <x:tableColumn id="4" name="yazakimail"/>
+    <x:tableColumn id="5" name="yetki"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -437,110 +425,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1041</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>210</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>212</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:E6"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:5">
+      <x:c r="A1" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D1" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E1" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5">
+      <x:c r="A2" s="0">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5">
+      <x:c r="A3" s="0">
+        <x:v>1041</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5">
+      <x:c r="A4" s="0">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5">
+      <x:c r="A5" s="0">
+        <x:v>212</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="b">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5">
+      <x:c r="A6" s="0">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="1">
+    <x:tablePart r:id="rId5"/>
+  </x:tableParts>
+</x:worksheet>
 </file>